--- a/biology/Médecine/Collegium_medicum_(université_Jagellonne)/Collegium_medicum_(université_Jagellonne).xlsx
+++ b/biology/Médecine/Collegium_medicum_(université_Jagellonne)/Collegium_medicum_(université_Jagellonne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collegium_medicum_(universit%C3%A9_Jagellonne)</t>
+          <t>Collegium_medicum_(université_Jagellonne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Collegium Medicum de l'université Jagellonne de Cracovie est la plus ancienne école de médecine en Pologne. 
@@ -489,7 +501,7 @@
 Faculté de médecine pour les étrangers (Wydział Lekarski – Szkoła Medyczna dla Obcokrajowców),
 Faculté de pharmacie (Wydział Farmaceutyczny),
 Faculté de sciences de la santé (Wydział Nauk o Zdrowiu).
-Les facultés de médecine et de pharmacie sont considérées dans les classements universitaires nationaux et internationaux comme l'une des meilleures écoles de médecine en Pologne : le Collegium Medicum est régulièrement à l'un des deux premiers rangs des écoles de médecine en Pologne par le prestigieux classement annuel[1],[2] du magazine Perspektywy (pl) et du quotidien Rzeczpospolita.
+Les facultés de médecine et de pharmacie sont considérées dans les classements universitaires nationaux et internationaux comme l'une des meilleures écoles de médecine en Pologne : le Collegium Medicum est régulièrement à l'un des deux premiers rangs des écoles de médecine en Pologne par le prestigieux classement annuel, du magazine Perspektywy (pl) et du quotidien Rzeczpospolita.
 De 1950 à 1993, le secteur médical a été détaché par le gouvernement communiste de l'université Jagellonne pour constituer un établissement autonome qui portait le nom d’Académie de médecine Nicolas Copernic.
 Depuis sa réintégration dans l'université en 1993, le Collegium Medicum a à sa tête un vice-recteur qui a rang de recteur (ce qui n'a pas empêché un professeur de médecine, Wojciech Nowak (pl), de devenir recteur de l'université en 2012, pour la première fois depuis la réunification).
 </t>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collegium_medicum_(universit%C3%A9_Jagellonne)</t>
+          <t>Collegium_medicum_(université_Jagellonne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,9 +532,11 @@
           <t>Vice-Recteur de l'université Jagellonne pour le Collegium Medicum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Piotr Laidler (pl) (biologiste, biochimiste), depuis 2012[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Piotr Laidler (pl) (biologiste, biochimiste), depuis 2012</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collegium_medicum_(universit%C3%A9_Jagellonne)</t>
+          <t>Collegium_medicum_(université_Jagellonne)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
